--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Vtn-Tnfrsf11b.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Vtn-Tnfrsf11b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
   </si>
   <si>
     <t>Vtn</t>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,31 +522,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>3.708951</v>
+        <v>3.337313</v>
       </c>
       <c r="H2">
-        <v>11.126853</v>
+        <v>10.011939</v>
       </c>
       <c r="I2">
-        <v>0.1962880377928</v>
+        <v>0.1958858017947999</v>
       </c>
       <c r="J2">
-        <v>0.1962880377928</v>
+        <v>0.1958858017947999</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -552,7 +555,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.08241233333333332</v>
+        <v>0.08241233333333334</v>
       </c>
       <c r="N2">
         <v>0.247237</v>
@@ -564,16 +567,16 @@
         <v>0.04727005612861496</v>
       </c>
       <c r="Q2">
-        <v>0.305663306129</v>
+        <v>0.2750357513936667</v>
       </c>
       <c r="R2">
-        <v>2.750969755161</v>
+        <v>2.475321762543</v>
       </c>
       <c r="S2">
-        <v>0.009278546563841349</v>
+        <v>0.009259532845638938</v>
       </c>
       <c r="T2">
-        <v>0.009278546563841349</v>
+        <v>0.009259532845638938</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>3.708951</v>
+        <v>3.337313</v>
       </c>
       <c r="H3">
-        <v>11.126853</v>
+        <v>10.011939</v>
       </c>
       <c r="I3">
-        <v>0.1962880377928</v>
+        <v>0.1958858017947999</v>
       </c>
       <c r="J3">
-        <v>0.1962880377928</v>
+        <v>0.1958858017947999</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,16 +629,16 @@
         <v>0.952729943871385</v>
       </c>
       <c r="Q3">
-        <v>6.160656625824001</v>
+        <v>5.543356988512</v>
       </c>
       <c r="R3">
-        <v>55.445909632416</v>
+        <v>49.890212896608</v>
       </c>
       <c r="S3">
-        <v>0.1870094912289586</v>
+        <v>0.186626268949161</v>
       </c>
       <c r="T3">
-        <v>0.1870094912289586</v>
+        <v>0.186626268949161</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,10 +646,10 @@
         <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>20</v>
@@ -664,10 +667,10 @@
         <v>30.851089</v>
       </c>
       <c r="I4">
-        <v>0.5442419095121536</v>
+        <v>0.6036083824529627</v>
       </c>
       <c r="J4">
-        <v>0.5442419095121537</v>
+        <v>0.6036083824529627</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -676,7 +679,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.08241233333333332</v>
+        <v>0.08241233333333334</v>
       </c>
       <c r="N4">
         <v>0.247237</v>
@@ -688,16 +691,16 @@
         <v>0.04727005612861496</v>
       </c>
       <c r="Q4">
-        <v>0.8475034101214444</v>
+        <v>0.8475034101214445</v>
       </c>
       <c r="R4">
-        <v>7.627530691093</v>
+        <v>7.627530691093001</v>
       </c>
       <c r="S4">
-        <v>0.02572634561018408</v>
+        <v>0.02853260211825403</v>
       </c>
       <c r="T4">
-        <v>0.02572634561018408</v>
+        <v>0.02853260211825403</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,10 +708,10 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>21</v>
@@ -726,10 +729,10 @@
         <v>30.851089</v>
       </c>
       <c r="I5">
-        <v>0.5442419095121536</v>
+        <v>0.6036083824529627</v>
       </c>
       <c r="J5">
-        <v>0.5442419095121537</v>
+        <v>0.6036083824529627</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -756,10 +759,10 @@
         <v>153.733197765408</v>
       </c>
       <c r="S5">
-        <v>0.5185155639019695</v>
+        <v>0.5750757803347086</v>
       </c>
       <c r="T5">
-        <v>0.5185155639019695</v>
+        <v>0.5750757803347086</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,10 +770,10 @@
         <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -782,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.902803666666666</v>
+        <v>3.355061</v>
       </c>
       <c r="H6">
-        <v>14.708411</v>
+        <v>10.065183</v>
       </c>
       <c r="I6">
-        <v>0.2594700526950464</v>
+        <v>0.196927532435664</v>
       </c>
       <c r="J6">
-        <v>0.2594700526950464</v>
+        <v>0.196927532435664</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -800,7 +803,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.08241233333333332</v>
+        <v>0.08241233333333334</v>
       </c>
       <c r="N6">
         <v>0.247237</v>
@@ -812,16 +815,16 @@
         <v>0.04727005612861496</v>
       </c>
       <c r="Q6">
-        <v>0.4040514900452222</v>
+        <v>0.2764984054856667</v>
       </c>
       <c r="R6">
-        <v>3.636463410407</v>
+        <v>2.488485649371</v>
       </c>
       <c r="S6">
-        <v>0.01226516395458952</v>
+        <v>0.009308775511503482</v>
       </c>
       <c r="T6">
-        <v>0.01226516395458952</v>
+        <v>0.009308775511503482</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,10 +832,10 @@
         <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
@@ -844,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.902803666666666</v>
+        <v>3.355061</v>
       </c>
       <c r="H7">
-        <v>14.708411</v>
+        <v>10.065183</v>
       </c>
       <c r="I7">
-        <v>0.2594700526950464</v>
+        <v>0.196927532435664</v>
       </c>
       <c r="J7">
-        <v>0.2594700526950464</v>
+        <v>0.196927532435664</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -874,16 +877,140 @@
         <v>0.952729943871385</v>
       </c>
       <c r="Q7">
-        <v>8.143674557621333</v>
+        <v>5.572836842464</v>
       </c>
       <c r="R7">
-        <v>73.293071018592</v>
+        <v>50.155531582176</v>
       </c>
       <c r="S7">
-        <v>0.2472048887404568</v>
+        <v>0.1876187569241606</v>
       </c>
       <c r="T7">
-        <v>0.2472048887404568</v>
+        <v>0.1876187569241605</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.06096333333333333</v>
+      </c>
+      <c r="H8">
+        <v>0.18289</v>
+      </c>
+      <c r="I8">
+        <v>0.003578283316573439</v>
+      </c>
+      <c r="J8">
+        <v>0.003578283316573439</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.08241233333333334</v>
+      </c>
+      <c r="N8">
+        <v>0.247237</v>
+      </c>
+      <c r="O8">
+        <v>0.04727005612861496</v>
+      </c>
+      <c r="P8">
+        <v>0.04727005612861496</v>
+      </c>
+      <c r="Q8">
+        <v>0.005024130547777778</v>
+      </c>
+      <c r="R8">
+        <v>0.04521717493</v>
+      </c>
+      <c r="S8">
+        <v>0.000169145653218513</v>
+      </c>
+      <c r="T8">
+        <v>0.000169145653218513</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.06096333333333333</v>
+      </c>
+      <c r="H9">
+        <v>0.18289</v>
+      </c>
+      <c r="I9">
+        <v>0.003578283316573439</v>
+      </c>
+      <c r="J9">
+        <v>0.003578283316573439</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1.661024</v>
+      </c>
+      <c r="N9">
+        <v>4.983072</v>
+      </c>
+      <c r="O9">
+        <v>0.9527299438713851</v>
+      </c>
+      <c r="P9">
+        <v>0.952729943871385</v>
+      </c>
+      <c r="Q9">
+        <v>0.1012615597866667</v>
+      </c>
+      <c r="R9">
+        <v>0.9113540380799999</v>
+      </c>
+      <c r="S9">
+        <v>0.003409137663354927</v>
+      </c>
+      <c r="T9">
+        <v>0.003409137663354926</v>
       </c>
     </row>
   </sheetData>
